--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshi\OneDrive\Desktop\DSA450\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshad Joshi\Desktop\DSA_Cracker_Sheet_In_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="492">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1508,12 +1508,18 @@
   <si>
     <t xml:space="preserve"> First sort the array and then  </t>
   </si>
+  <si>
+    <t>Extended Merge Sort</t>
+  </si>
+  <si>
+    <t>To get maximum Profit we have to calculate minSoFar and maxProfitSoFar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1615,6 +1621,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1655,7 +1669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1697,6 +1711,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2016,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2348,18 +2365,24 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="C21" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="21">
       <c r="A22" s="5" t="s">
@@ -2368,12 +2391,18 @@
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="C22" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="21">
       <c r="A23" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1519,7 +1519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1629,6 +1629,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1669,7 +1676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1714,6 +1721,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2033,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2355,7 +2365,7 @@
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="20" t="s">
         <v>465</v>
       </c>
       <c r="D20" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="496">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1513,6 +1513,18 @@
   </si>
   <si>
     <t>To get maximum Profit we have to calculate minSoFar and maxProfitSoFar</t>
+  </si>
+  <si>
+    <t>Loop through the arr and make an unordered map if freq of an item present in the map than add it to count else add element to the map</t>
+  </si>
+  <si>
+    <t>make three pointers and loop through all the three arrays OR use sets in python</t>
+  </si>
+  <si>
+    <t>firstly seprating positive and negative elements inplace without using extra space and than rearranging them</t>
+  </si>
+  <si>
+    <t>Use hashing i.e dict and check the current sum if current sum already present In the dict than a subarray with zero sum exitsts</t>
   </si>
 </sst>
 </file>
@@ -2043,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2421,12 +2433,18 @@
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="C23" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="21">
       <c r="A24" s="5" t="s">
@@ -2435,12 +2453,18 @@
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="C24" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="21">
       <c r="A25" s="5" t="s">
@@ -2449,12 +2473,18 @@
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="C25" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="21">
       <c r="A26" s="5" t="s">
@@ -2463,12 +2493,18 @@
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="C26" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="21">
       <c r="A27" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="503">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1446,9 +1446,6 @@
   </si>
   <si>
     <t xml:space="preserve"> O(n)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort the entire array through merge sort and return the kth index </t>
   </si>
   <si>
     <t>O(nlogn)</t>
@@ -1526,12 +1523,36 @@
   <si>
     <t>Use hashing i.e dict and check the current sum if current sum already present In the dict than a subarray with zero sum exitsts</t>
   </si>
+  <si>
+    <t>use for loop and python will handle the rest</t>
+  </si>
+  <si>
+    <t>Use MaxHeap of k size and traverse through array if maxheap.size &gt; k than pop max item from heap and lastly return max item from heap</t>
+  </si>
+  <si>
+    <t>loop through both side of the arr one by one and maintain currMax and return maxOflargest</t>
+  </si>
+  <si>
+    <t>use set loop and check if num - 1 is present if present do not strt a subarry else start a subarry and find if next element is present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import counter from collections and just traverse the dict </t>
+  </si>
+  <si>
+    <t>Use set and its function issubset because set uses hashmap</t>
+  </si>
+  <si>
+    <t>use two loops and use set to put elements ..</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1642,14 +1663,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1674,6 +1704,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1688,7 +1730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1735,7 +1777,16 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2055,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2155,13 +2206,13 @@
         <v>465</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>475</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21">
@@ -2175,10 +2226,10 @@
         <v>465</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>471</v>
@@ -2195,10 +2246,10 @@
         <v>465</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>471</v>
@@ -2215,13 +2266,13 @@
         <v>465</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21">
@@ -2235,10 +2286,10 @@
         <v>465</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>471</v>
@@ -2255,10 +2306,10 @@
         <v>465</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>471</v>
@@ -2303,13 +2354,13 @@
         <v>465</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2325,10 +2376,10 @@
         <v>465</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>471</v>
@@ -2345,10 +2396,10 @@
         <v>465</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>471</v>
@@ -2361,11 +2412,11 @@
       <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="22" t="s">
         <v>465</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2377,11 +2428,11 @@
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="22" t="s">
         <v>465</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2393,17 +2444,17 @@
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="21" t="s">
         <v>465</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21">
@@ -2413,14 +2464,14 @@
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="21" t="s">
         <v>465</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>471</v>
@@ -2433,17 +2484,17 @@
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="21" t="s">
         <v>465</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21">
@@ -2453,14 +2504,14 @@
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="21" t="s">
         <v>465</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>471</v>
@@ -2473,14 +2524,14 @@
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="21" t="s">
         <v>465</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>471</v>
@@ -2493,17 +2544,17 @@
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="21" t="s">
         <v>465</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21">
@@ -2513,12 +2564,18 @@
       <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="C27" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="21">
       <c r="A28" s="5" t="s">
@@ -2527,12 +2584,18 @@
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="C28" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="21">
       <c r="A29" s="5" t="s">
@@ -2541,12 +2604,18 @@
       <c r="B29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="C29" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="21">
       <c r="A30" s="5" t="s">
@@ -2555,12 +2624,18 @@
       <c r="B30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="C30" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="21">
       <c r="A31" s="5" t="s">
@@ -2569,8 +2644,8 @@
       <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>4</v>
+      <c r="C31" s="22" t="s">
+        <v>465</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2583,12 +2658,18 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="C32" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="21">
       <c r="A33" s="5" t="s">
@@ -2597,10 +2678,12 @@
       <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="4"/>
+      <c r="C33" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>501</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
@@ -2611,8 +2694,8 @@
       <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
+      <c r="C34" s="22" t="s">
+        <v>465</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2625,8 +2708,8 @@
       <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
+      <c r="C35" s="21" t="s">
+        <v>465</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2639,8 +2722,8 @@
       <c r="B36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>4</v>
+      <c r="C36" s="21" t="s">
+        <v>465</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2653,8 +2736,8 @@
       <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>4</v>
+      <c r="C37" s="21" t="s">
+        <v>465</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2667,8 +2750,8 @@
       <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>4</v>
+      <c r="C38" s="21" t="s">
+        <v>465</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2681,8 +2764,8 @@
       <c r="B39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>4</v>
+      <c r="C39" s="21" t="s">
+        <v>465</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2695,8 +2778,8 @@
       <c r="B40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>4</v>
+      <c r="C40" s="21" t="s">
+        <v>465</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2709,8 +2792,8 @@
       <c r="B41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>4</v>
+      <c r="C41" s="21" t="s">
+        <v>465</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2718,9 +2801,7 @@
     </row>
     <row r="42" spans="1:6" ht="21">
       <c r="B42" s="7"/>
-      <c r="C42" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C42" s="23"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2728,9 +2809,7 @@
     <row r="43" spans="1:6" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C43" s="23"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2742,8 +2821,8 @@
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>4</v>
+      <c r="C44" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2756,8 +2835,8 @@
       <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>4</v>
+      <c r="C45" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2770,8 +2849,8 @@
       <c r="B46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>4</v>
+      <c r="C46" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2784,8 +2863,8 @@
       <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>4</v>
+      <c r="C47" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -2798,8 +2877,8 @@
       <c r="B48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>4</v>
+      <c r="C48" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2812,8 +2891,8 @@
       <c r="B49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>4</v>
+      <c r="C49" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2826,8 +2905,8 @@
       <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>4</v>
+      <c r="C50" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -2840,8 +2919,8 @@
       <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
+      <c r="C51" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2854,8 +2933,8 @@
       <c r="B52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>4</v>
+      <c r="C52" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2868,14 +2947,17 @@
       <c r="B53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>4</v>
+      <c r="C53" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="21">
+      <c r="C54" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2883,7 +2965,9 @@
     <row r="55" spans="1:6" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="4"/>
+      <c r="C55" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2895,8 +2979,8 @@
       <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>4</v>
+      <c r="C56" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2909,8 +2993,8 @@
       <c r="B57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>4</v>
+      <c r="C57" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -2923,8 +3007,8 @@
       <c r="B58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>4</v>
+      <c r="C58" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -2937,8 +3021,8 @@
       <c r="B59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>4</v>
+      <c r="C59" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -2951,8 +3035,8 @@
       <c r="B60" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>4</v>
+      <c r="C60" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -2965,8 +3049,8 @@
       <c r="B61" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>4</v>
+      <c r="C61" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -2979,8 +3063,8 @@
       <c r="B62" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>4</v>
+      <c r="C62" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -2993,8 +3077,8 @@
       <c r="B63" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>4</v>
+      <c r="C63" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -3007,8 +3091,8 @@
       <c r="B64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>4</v>
+      <c r="C64" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -3021,8 +3105,8 @@
       <c r="B65" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>4</v>
+      <c r="C65" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -3035,8 +3119,8 @@
       <c r="B66" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>4</v>
+      <c r="C66" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -3049,8 +3133,8 @@
       <c r="B67" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>4</v>
+      <c r="C67" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -3063,8 +3147,8 @@
       <c r="B68" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>4</v>
+      <c r="C68" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -3077,8 +3161,8 @@
       <c r="B69" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>4</v>
+      <c r="C69" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -3091,8 +3175,8 @@
       <c r="B70" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>4</v>
+      <c r="C70" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -3105,8 +3189,8 @@
       <c r="B71" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>4</v>
+      <c r="C71" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -3119,8 +3203,8 @@
       <c r="B72" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>4</v>
+      <c r="C72" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -3133,8 +3217,8 @@
       <c r="B73" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>4</v>
+      <c r="C73" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -3147,8 +3231,8 @@
       <c r="B74" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>4</v>
+      <c r="C74" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -3161,8 +3245,8 @@
       <c r="B75" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>4</v>
+      <c r="C75" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -3175,8 +3259,8 @@
       <c r="B76" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>4</v>
+      <c r="C76" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -3189,8 +3273,8 @@
       <c r="B77" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>4</v>
+      <c r="C77" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -3203,8 +3287,8 @@
       <c r="B78" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>4</v>
+      <c r="C78" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -3217,8 +3301,8 @@
       <c r="B79" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>4</v>
+      <c r="C79" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -3231,8 +3315,8 @@
       <c r="B80" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>4</v>
+      <c r="C80" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -3245,8 +3329,8 @@
       <c r="B81" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>4</v>
+      <c r="C81" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -3259,8 +3343,8 @@
       <c r="B82" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>4</v>
+      <c r="C82" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -3273,8 +3357,8 @@
       <c r="B83" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>4</v>
+      <c r="C83" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -3287,8 +3371,8 @@
       <c r="B84" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>4</v>
+      <c r="C84" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -3301,8 +3385,8 @@
       <c r="B85" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>4</v>
+      <c r="C85" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -3315,8 +3399,8 @@
       <c r="B86" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>4</v>
+      <c r="C86" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -3329,8 +3413,8 @@
       <c r="B87" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>4</v>
+      <c r="C87" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -3343,8 +3427,8 @@
       <c r="B88" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>4</v>
+      <c r="C88" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -3357,8 +3441,8 @@
       <c r="B89" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>4</v>
+      <c r="C89" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -3371,8 +3455,8 @@
       <c r="B90" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>4</v>
+      <c r="C90" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -3385,8 +3469,8 @@
       <c r="B91" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>4</v>
+      <c r="C91" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -3399,8 +3483,8 @@
       <c r="B92" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>4</v>
+      <c r="C92" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -3413,8 +3497,8 @@
       <c r="B93" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>4</v>
+      <c r="C93" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -3427,8 +3511,8 @@
       <c r="B94" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>4</v>
+      <c r="C94" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -3441,8 +3525,8 @@
       <c r="B95" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>4</v>
+      <c r="C95" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -3455,8 +3539,8 @@
       <c r="B96" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>4</v>
+      <c r="C96" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -3469,8 +3553,8 @@
       <c r="B97" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>4</v>
+      <c r="C97" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -3483,14 +3567,17 @@
       <c r="B98" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>4</v>
+      <c r="C98" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="21">
+      <c r="C99" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -3498,7 +3585,9 @@
     <row r="100" spans="1:6" ht="21">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="4"/>
+      <c r="C100" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -3510,8 +3599,8 @@
       <c r="B101" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>4</v>
+      <c r="C101" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -3524,8 +3613,8 @@
       <c r="B102" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>4</v>
+      <c r="C102" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -3538,8 +3627,8 @@
       <c r="B103" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>4</v>
+      <c r="C103" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -3552,8 +3641,8 @@
       <c r="B104" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>4</v>
+      <c r="C104" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -3566,8 +3655,8 @@
       <c r="B105" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>4</v>
+      <c r="C105" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -3580,8 +3669,8 @@
       <c r="B106" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>4</v>
+      <c r="C106" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -3594,8 +3683,8 @@
       <c r="B107" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>4</v>
+      <c r="C107" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -3608,8 +3697,8 @@
       <c r="B108" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>4</v>
+      <c r="C108" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -3622,8 +3711,8 @@
       <c r="B109" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>4</v>
+      <c r="C109" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -3636,8 +3725,8 @@
       <c r="B110" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>4</v>
+      <c r="C110" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -3650,8 +3739,8 @@
       <c r="B111" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>4</v>
+      <c r="C111" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -3664,8 +3753,8 @@
       <c r="B112" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>4</v>
+      <c r="C112" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -3678,8 +3767,8 @@
       <c r="B113" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>4</v>
+      <c r="C113" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -3692,8 +3781,8 @@
       <c r="B114" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>4</v>
+      <c r="C114" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -3706,8 +3795,8 @@
       <c r="B115" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>4</v>
+      <c r="C115" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -3720,8 +3809,8 @@
       <c r="B116" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>4</v>
+      <c r="C116" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -3734,8 +3823,8 @@
       <c r="B117" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>4</v>
+      <c r="C117" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -3748,8 +3837,8 @@
       <c r="B118" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>4</v>
+      <c r="C118" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -3762,8 +3851,8 @@
       <c r="B119" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>4</v>
+      <c r="C119" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -3776,8 +3865,8 @@
       <c r="B120" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>4</v>
+      <c r="C120" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -3790,8 +3879,8 @@
       <c r="B121" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>4</v>
+      <c r="C121" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -3804,8 +3893,8 @@
       <c r="B122" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>4</v>
+      <c r="C122" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -3818,8 +3907,8 @@
       <c r="B123" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>4</v>
+      <c r="C123" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -3832,8 +3921,8 @@
       <c r="B124" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>4</v>
+      <c r="C124" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -3846,8 +3935,8 @@
       <c r="B125" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>4</v>
+      <c r="C125" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -3860,8 +3949,8 @@
       <c r="B126" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>4</v>
+      <c r="C126" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -3874,8 +3963,8 @@
       <c r="B127" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>4</v>
+      <c r="C127" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -3888,8 +3977,8 @@
       <c r="B128" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>4</v>
+      <c r="C128" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -3902,8 +3991,8 @@
       <c r="B129" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>4</v>
+      <c r="C129" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -3916,8 +4005,8 @@
       <c r="B130" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>4</v>
+      <c r="C130" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -3930,8 +4019,8 @@
       <c r="B131" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>4</v>
+      <c r="C131" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -3944,8 +4033,8 @@
       <c r="B132" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>4</v>
+      <c r="C132" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -3958,8 +4047,8 @@
       <c r="B133" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>4</v>
+      <c r="C133" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -3972,8 +4061,8 @@
       <c r="B134" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>4</v>
+      <c r="C134" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -3986,8 +4075,8 @@
       <c r="B135" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>4</v>
+      <c r="C135" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -4000,21 +4089,26 @@
       <c r="B136" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>4</v>
+      <c r="C136" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" ht="21">
+      <c r="C137" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
     <row r="138" spans="1:6" ht="21">
       <c r="B138" s="7"/>
-      <c r="C138" s="4"/>
+      <c r="C138" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -4026,8 +4120,8 @@
       <c r="B139" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>4</v>
+      <c r="C139" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -4040,8 +4134,8 @@
       <c r="B140" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>4</v>
+      <c r="C140" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -4054,8 +4148,8 @@
       <c r="B141" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>4</v>
+      <c r="C141" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -4068,8 +4162,8 @@
       <c r="B142" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>4</v>
+      <c r="C142" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -4082,8 +4176,8 @@
       <c r="B143" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>4</v>
+      <c r="C143" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -4096,8 +4190,8 @@
       <c r="B144" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>4</v>
+      <c r="C144" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -4110,8 +4204,8 @@
       <c r="B145" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>4</v>
+      <c r="C145" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -4124,8 +4218,8 @@
       <c r="B146" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>4</v>
+      <c r="C146" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -4138,8 +4232,8 @@
       <c r="B147" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>4</v>
+      <c r="C147" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -4152,8 +4246,8 @@
       <c r="B148" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>4</v>
+      <c r="C148" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -4166,8 +4260,8 @@
       <c r="B149" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>4</v>
+      <c r="C149" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -4180,8 +4274,8 @@
       <c r="B150" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>4</v>
+      <c r="C150" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -4194,8 +4288,8 @@
       <c r="B151" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>4</v>
+      <c r="C151" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -4208,8 +4302,8 @@
       <c r="B152" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>4</v>
+      <c r="C152" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -4222,8 +4316,8 @@
       <c r="B153" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>4</v>
+      <c r="C153" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -4236,8 +4330,8 @@
       <c r="B154" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>4</v>
+      <c r="C154" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -4250,8 +4344,8 @@
       <c r="B155" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>4</v>
+      <c r="C155" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -4264,8 +4358,8 @@
       <c r="B156" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>4</v>
+      <c r="C156" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -4278,8 +4372,8 @@
       <c r="B157" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>4</v>
+      <c r="C157" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -4292,8 +4386,8 @@
       <c r="B158" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>4</v>
+      <c r="C158" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -4306,8 +4400,8 @@
       <c r="B159" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>4</v>
+      <c r="C159" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -4320,8 +4414,8 @@
       <c r="B160" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>4</v>
+      <c r="C160" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -4334,8 +4428,8 @@
       <c r="B161" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>4</v>
+      <c r="C161" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -4348,8 +4442,8 @@
       <c r="B162" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>4</v>
+      <c r="C162" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -4362,8 +4456,8 @@
       <c r="B163" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C163" s="4" t="s">
-        <v>4</v>
+      <c r="C163" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -4376,8 +4470,8 @@
       <c r="B164" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C164" s="4" t="s">
-        <v>4</v>
+      <c r="C164" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -4390,8 +4484,8 @@
       <c r="B165" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C165" s="4" t="s">
-        <v>4</v>
+      <c r="C165" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -4404,8 +4498,8 @@
       <c r="B166" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>4</v>
+      <c r="C166" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -4418,8 +4512,8 @@
       <c r="B167" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>4</v>
+      <c r="C167" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -4432,8 +4526,8 @@
       <c r="B168" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>4</v>
+      <c r="C168" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -4446,8 +4540,8 @@
       <c r="B169" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C169" s="4" t="s">
-        <v>4</v>
+      <c r="C169" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -4460,8 +4554,8 @@
       <c r="B170" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>4</v>
+      <c r="C170" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -4474,8 +4568,8 @@
       <c r="B171" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>4</v>
+      <c r="C171" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -4488,8 +4582,8 @@
       <c r="B172" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>4</v>
+      <c r="C172" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -4502,8 +4596,8 @@
       <c r="B173" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C173" s="4" t="s">
-        <v>4</v>
+      <c r="C173" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -4516,21 +4610,26 @@
       <c r="B174" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C174" s="4" t="s">
-        <v>4</v>
+      <c r="C174" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" ht="21">
+      <c r="C175" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
     </row>
     <row r="176" spans="1:6" ht="21">
       <c r="B176" s="7"/>
-      <c r="C176" s="4"/>
+      <c r="C176" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
@@ -4542,8 +4641,8 @@
       <c r="B177" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="4" t="s">
-        <v>4</v>
+      <c r="C177" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -4556,8 +4655,8 @@
       <c r="B178" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>4</v>
+      <c r="C178" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -4570,8 +4669,8 @@
       <c r="B179" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>4</v>
+      <c r="C179" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -4584,8 +4683,8 @@
       <c r="B180" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C180" s="4" t="s">
-        <v>4</v>
+      <c r="C180" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -4598,8 +4697,8 @@
       <c r="B181" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C181" s="4" t="s">
-        <v>4</v>
+      <c r="C181" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -4612,8 +4711,8 @@
       <c r="B182" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C182" s="4" t="s">
-        <v>4</v>
+      <c r="C182" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -4626,8 +4725,8 @@
       <c r="B183" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C183" s="4" t="s">
-        <v>4</v>
+      <c r="C183" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -4640,8 +4739,8 @@
       <c r="B184" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C184" s="4" t="s">
-        <v>4</v>
+      <c r="C184" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -4654,8 +4753,8 @@
       <c r="B185" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C185" s="4" t="s">
-        <v>4</v>
+      <c r="C185" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -4668,8 +4767,8 @@
       <c r="B186" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C186" s="4" t="s">
-        <v>4</v>
+      <c r="C186" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -4682,8 +4781,8 @@
       <c r="B187" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C187" s="4" t="s">
-        <v>4</v>
+      <c r="C187" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -4696,8 +4795,8 @@
       <c r="B188" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C188" s="4" t="s">
-        <v>4</v>
+      <c r="C188" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -4710,8 +4809,8 @@
       <c r="B189" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C189" s="4" t="s">
-        <v>4</v>
+      <c r="C189" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -4724,8 +4823,8 @@
       <c r="B190" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C190" s="4" t="s">
-        <v>4</v>
+      <c r="C190" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -4738,8 +4837,8 @@
       <c r="B191" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>4</v>
+      <c r="C191" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -4752,8 +4851,8 @@
       <c r="B192" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C192" s="4" t="s">
-        <v>4</v>
+      <c r="C192" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -4766,8 +4865,8 @@
       <c r="B193" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C193" s="4" t="s">
-        <v>4</v>
+      <c r="C193" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -4780,8 +4879,8 @@
       <c r="B194" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C194" s="4" t="s">
-        <v>4</v>
+      <c r="C194" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -4794,8 +4893,8 @@
       <c r="B195" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C195" s="4" t="s">
-        <v>4</v>
+      <c r="C195" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -4808,8 +4907,8 @@
       <c r="B196" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C196" s="4" t="s">
-        <v>4</v>
+      <c r="C196" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -4822,8 +4921,8 @@
       <c r="B197" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C197" s="4" t="s">
-        <v>4</v>
+      <c r="C197" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -4836,8 +4935,8 @@
       <c r="B198" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C198" s="4" t="s">
-        <v>4</v>
+      <c r="C198" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -4850,8 +4949,8 @@
       <c r="B199" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C199" s="4" t="s">
-        <v>4</v>
+      <c r="C199" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -4864,8 +4963,8 @@
       <c r="B200" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C200" s="4" t="s">
-        <v>4</v>
+      <c r="C200" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -4878,8 +4977,8 @@
       <c r="B201" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C201" s="4" t="s">
-        <v>4</v>
+      <c r="C201" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -4892,8 +4991,8 @@
       <c r="B202" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C202" s="4" t="s">
-        <v>4</v>
+      <c r="C202" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -4906,8 +5005,8 @@
       <c r="B203" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C203" s="4" t="s">
-        <v>4</v>
+      <c r="C203" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -4920,8 +5019,8 @@
       <c r="B204" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C204" s="4" t="s">
-        <v>4</v>
+      <c r="C204" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -4934,8 +5033,8 @@
       <c r="B205" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C205" s="4" t="s">
-        <v>4</v>
+      <c r="C205" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -4948,8 +5047,8 @@
       <c r="B206" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C206" s="4" t="s">
-        <v>4</v>
+      <c r="C206" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -4962,8 +5061,8 @@
       <c r="B207" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C207" s="4" t="s">
-        <v>4</v>
+      <c r="C207" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -4976,8 +5075,8 @@
       <c r="B208" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C208" s="4" t="s">
-        <v>4</v>
+      <c r="C208" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -4990,8 +5089,8 @@
       <c r="B209" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C209" s="4" t="s">
-        <v>4</v>
+      <c r="C209" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -5004,8 +5103,8 @@
       <c r="B210" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C210" s="4" t="s">
-        <v>4</v>
+      <c r="C210" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -5018,8 +5117,8 @@
       <c r="B211" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C211" s="4" t="s">
-        <v>4</v>
+      <c r="C211" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -5028,7 +5127,9 @@
     <row r="212" spans="1:6" ht="21">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
-      <c r="C212" s="4"/>
+      <c r="C212" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
@@ -5036,7 +5137,9 @@
     <row r="213" spans="1:6" ht="21">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
-      <c r="C213" s="4"/>
+      <c r="C213" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
@@ -5048,8 +5151,8 @@
       <c r="B214" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C214" s="4" t="s">
-        <v>4</v>
+      <c r="C214" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -5062,8 +5165,8 @@
       <c r="B215" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C215" s="4" t="s">
-        <v>4</v>
+      <c r="C215" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -5076,8 +5179,8 @@
       <c r="B216" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C216" s="4" t="s">
-        <v>4</v>
+      <c r="C216" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -5090,8 +5193,8 @@
       <c r="B217" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C217" s="4" t="s">
-        <v>4</v>
+      <c r="C217" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -5104,8 +5207,8 @@
       <c r="B218" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="4" t="s">
-        <v>4</v>
+      <c r="C218" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -5118,8 +5221,8 @@
       <c r="B219" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C219" s="4" t="s">
-        <v>4</v>
+      <c r="C219" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -5132,8 +5235,8 @@
       <c r="B220" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C220" s="4" t="s">
-        <v>4</v>
+      <c r="C220" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -5146,8 +5249,8 @@
       <c r="B221" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C221" s="4" t="s">
-        <v>4</v>
+      <c r="C221" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -5160,8 +5263,8 @@
       <c r="B222" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C222" s="4" t="s">
-        <v>4</v>
+      <c r="C222" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -5174,8 +5277,8 @@
       <c r="B223" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C223" s="4" t="s">
-        <v>4</v>
+      <c r="C223" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -5188,8 +5291,8 @@
       <c r="B224" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C224" s="4" t="s">
-        <v>4</v>
+      <c r="C224" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -5202,8 +5305,8 @@
       <c r="B225" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="4" t="s">
-        <v>4</v>
+      <c r="C225" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -5216,8 +5319,8 @@
       <c r="B226" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C226" s="4" t="s">
-        <v>4</v>
+      <c r="C226" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -5230,8 +5333,8 @@
       <c r="B227" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C227" s="4" t="s">
-        <v>4</v>
+      <c r="C227" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -5244,8 +5347,8 @@
       <c r="B228" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C228" s="4" t="s">
-        <v>4</v>
+      <c r="C228" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -5258,8 +5361,8 @@
       <c r="B229" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C229" s="4" t="s">
-        <v>4</v>
+      <c r="C229" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -5272,8 +5375,8 @@
       <c r="B230" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C230" s="4" t="s">
-        <v>4</v>
+      <c r="C230" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -5286,8 +5389,8 @@
       <c r="B231" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C231" s="4" t="s">
-        <v>4</v>
+      <c r="C231" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -5300,8 +5403,8 @@
       <c r="B232" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C232" s="4" t="s">
-        <v>4</v>
+      <c r="C232" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -5314,8 +5417,8 @@
       <c r="B233" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C233" s="4" t="s">
-        <v>4</v>
+      <c r="C233" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -5328,8 +5431,8 @@
       <c r="B234" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C234" s="4" t="s">
-        <v>4</v>
+      <c r="C234" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -5342,8 +5445,8 @@
       <c r="B235" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C235" s="4" t="s">
-        <v>4</v>
+      <c r="C235" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -5351,13 +5454,17 @@
     </row>
     <row r="236" spans="1:6" ht="21">
       <c r="B236" s="7"/>
-      <c r="C236" s="4"/>
+      <c r="C236" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D236" s="4"/>
       <c r="F236" s="4"/>
     </row>
     <row r="237" spans="1:6" ht="21">
       <c r="B237" s="7"/>
-      <c r="C237" s="4"/>
+      <c r="C237" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D237" s="4"/>
       <c r="F237" s="4"/>
     </row>
@@ -5368,8 +5475,8 @@
       <c r="B238" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C238" s="4" t="s">
-        <v>4</v>
+      <c r="C238" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D238" s="4"/>
       <c r="F238" s="4"/>
@@ -5381,8 +5488,8 @@
       <c r="B239" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C239" s="4" t="s">
-        <v>4</v>
+      <c r="C239" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D239" s="4"/>
       <c r="F239" s="4"/>
@@ -5394,8 +5501,8 @@
       <c r="B240" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C240" s="4" t="s">
-        <v>4</v>
+      <c r="C240" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D240" s="4"/>
       <c r="F240" s="4"/>
@@ -5407,8 +5514,8 @@
       <c r="B241" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C241" s="4" t="s">
-        <v>4</v>
+      <c r="C241" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D241" s="4"/>
       <c r="F241" s="4"/>
@@ -5420,8 +5527,8 @@
       <c r="B242" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C242" s="4" t="s">
-        <v>4</v>
+      <c r="C242" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D242" s="4"/>
       <c r="F242" s="4"/>
@@ -5433,8 +5540,8 @@
       <c r="B243" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C243" s="4" t="s">
-        <v>4</v>
+      <c r="C243" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D243" s="4"/>
       <c r="F243" s="4"/>
@@ -5446,8 +5553,8 @@
       <c r="B244" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C244" s="4" t="s">
-        <v>4</v>
+      <c r="C244" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D244" s="4"/>
       <c r="F244" s="4"/>
@@ -5459,8 +5566,8 @@
       <c r="B245" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C245" s="4" t="s">
-        <v>4</v>
+      <c r="C245" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D245" s="4"/>
       <c r="F245" s="4"/>
@@ -5472,8 +5579,8 @@
       <c r="B246" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C246" s="4" t="s">
-        <v>4</v>
+      <c r="C246" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D246" s="4"/>
       <c r="F246" s="4"/>
@@ -5485,8 +5592,8 @@
       <c r="B247" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C247" s="4" t="s">
-        <v>4</v>
+      <c r="C247" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D247" s="4"/>
       <c r="F247" s="4"/>
@@ -5498,8 +5605,8 @@
       <c r="B248" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C248" s="4" t="s">
-        <v>4</v>
+      <c r="C248" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D248" s="4"/>
       <c r="F248" s="4"/>
@@ -5511,8 +5618,8 @@
       <c r="B249" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C249" s="4" t="s">
-        <v>4</v>
+      <c r="C249" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D249" s="4"/>
       <c r="F249" s="4"/>
@@ -5524,8 +5631,8 @@
       <c r="B250" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C250" s="4" t="s">
-        <v>4</v>
+      <c r="C250" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D250" s="4"/>
       <c r="F250" s="4"/>
@@ -5537,8 +5644,8 @@
       <c r="B251" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C251" s="4" t="s">
-        <v>4</v>
+      <c r="C251" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D251" s="4"/>
       <c r="F251" s="4"/>
@@ -5550,8 +5657,8 @@
       <c r="B252" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C252" s="4" t="s">
-        <v>4</v>
+      <c r="C252" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D252" s="4"/>
       <c r="F252" s="4"/>
@@ -5563,8 +5670,8 @@
       <c r="B253" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C253" s="4" t="s">
-        <v>4</v>
+      <c r="C253" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D253" s="4"/>
       <c r="F253" s="4"/>
@@ -5576,8 +5683,8 @@
       <c r="B254" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C254" s="4" t="s">
-        <v>4</v>
+      <c r="C254" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D254" s="4"/>
       <c r="F254" s="4"/>
@@ -5589,8 +5696,8 @@
       <c r="B255" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C255" s="4" t="s">
-        <v>4</v>
+      <c r="C255" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D255" s="4"/>
       <c r="F255" s="4"/>
@@ -5602,8 +5709,8 @@
       <c r="B256" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C256" s="4" t="s">
-        <v>4</v>
+      <c r="C256" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D256" s="4"/>
       <c r="F256" s="4"/>
@@ -5615,8 +5722,8 @@
       <c r="B257" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C257" s="4" t="s">
-        <v>4</v>
+      <c r="C257" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D257" s="4"/>
       <c r="F257" s="4"/>
@@ -5628,8 +5735,8 @@
       <c r="B258" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C258" s="4" t="s">
-        <v>4</v>
+      <c r="C258" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D258" s="4"/>
       <c r="F258" s="4"/>
@@ -5641,8 +5748,8 @@
       <c r="B259" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C259" s="4" t="s">
-        <v>4</v>
+      <c r="C259" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D259" s="4"/>
       <c r="F259" s="4"/>
@@ -5654,8 +5761,8 @@
       <c r="B260" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C260" s="4" t="s">
-        <v>4</v>
+      <c r="C260" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D260" s="4"/>
       <c r="F260" s="4"/>
@@ -5667,8 +5774,8 @@
       <c r="B261" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C261" s="4" t="s">
-        <v>4</v>
+      <c r="C261" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D261" s="4"/>
       <c r="F261" s="4"/>
@@ -5680,8 +5787,8 @@
       <c r="B262" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C262" s="4" t="s">
-        <v>4</v>
+      <c r="C262" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D262" s="4"/>
       <c r="F262" s="4"/>
@@ -5693,8 +5800,8 @@
       <c r="B263" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C263" s="4" t="s">
-        <v>4</v>
+      <c r="C263" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D263" s="4"/>
       <c r="F263" s="4"/>
@@ -5706,8 +5813,8 @@
       <c r="B264" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C264" s="4" t="s">
-        <v>4</v>
+      <c r="C264" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D264" s="4"/>
       <c r="F264" s="4"/>
@@ -5719,8 +5826,8 @@
       <c r="B265" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C265" s="4" t="s">
-        <v>4</v>
+      <c r="C265" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D265" s="4"/>
       <c r="F265" s="4"/>
@@ -5732,8 +5839,8 @@
       <c r="B266" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C266" s="4" t="s">
-        <v>4</v>
+      <c r="C266" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D266" s="4"/>
       <c r="F266" s="4"/>
@@ -5745,8 +5852,8 @@
       <c r="B267" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C267" s="4" t="s">
-        <v>4</v>
+      <c r="C267" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D267" s="4"/>
       <c r="F267" s="4"/>
@@ -5758,8 +5865,8 @@
       <c r="B268" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C268" s="4" t="s">
-        <v>4</v>
+      <c r="C268" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D268" s="4"/>
       <c r="F268" s="4"/>
@@ -5771,8 +5878,8 @@
       <c r="B269" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C269" s="4" t="s">
-        <v>4</v>
+      <c r="C269" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D269" s="4"/>
       <c r="F269" s="4"/>
@@ -5784,8 +5891,8 @@
       <c r="B270" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C270" s="4" t="s">
-        <v>4</v>
+      <c r="C270" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D270" s="4"/>
       <c r="F270" s="4"/>
@@ -5797,8 +5904,8 @@
       <c r="B271" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C271" s="4" t="s">
-        <v>4</v>
+      <c r="C271" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D271" s="4"/>
       <c r="F271" s="4"/>
@@ -5810,21 +5917,25 @@
       <c r="B272" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C272" s="4" t="s">
-        <v>4</v>
+      <c r="C272" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D272" s="4"/>
       <c r="F272" s="4"/>
     </row>
     <row r="273" spans="1:6" ht="21">
       <c r="B273" s="7"/>
-      <c r="C273" s="4"/>
+      <c r="C273" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D273" s="4"/>
       <c r="F273" s="4"/>
     </row>
     <row r="274" spans="1:6" ht="21">
       <c r="B274" s="7"/>
-      <c r="C274" s="4"/>
+      <c r="C274" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D274" s="4"/>
       <c r="F274" s="4"/>
     </row>
@@ -5835,8 +5946,8 @@
       <c r="B275" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C275" s="4" t="s">
-        <v>4</v>
+      <c r="C275" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D275" s="4"/>
       <c r="F275" s="4"/>
@@ -5848,8 +5959,8 @@
       <c r="B276" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C276" s="4" t="s">
-        <v>4</v>
+      <c r="C276" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D276" s="4"/>
       <c r="F276" s="4"/>
@@ -5861,8 +5972,8 @@
       <c r="B277" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C277" s="4" t="s">
-        <v>4</v>
+      <c r="C277" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D277" s="4"/>
       <c r="F277" s="4"/>
@@ -5874,8 +5985,8 @@
       <c r="B278" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C278" s="4" t="s">
-        <v>4</v>
+      <c r="C278" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D278" s="4"/>
       <c r="F278" s="4"/>
@@ -5887,8 +5998,8 @@
       <c r="B279" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C279" s="4" t="s">
-        <v>4</v>
+      <c r="C279" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D279" s="4"/>
       <c r="F279" s="4"/>
@@ -5900,8 +6011,8 @@
       <c r="B280" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C280" s="4" t="s">
-        <v>4</v>
+      <c r="C280" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D280" s="4"/>
       <c r="F280" s="4"/>
@@ -5913,8 +6024,8 @@
       <c r="B281" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C281" s="4" t="s">
-        <v>4</v>
+      <c r="C281" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D281" s="4"/>
       <c r="F281" s="4"/>
@@ -5926,8 +6037,8 @@
       <c r="B282" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C282" s="4" t="s">
-        <v>4</v>
+      <c r="C282" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D282" s="4"/>
       <c r="F282" s="4"/>
@@ -5939,8 +6050,8 @@
       <c r="B283" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C283" s="4" t="s">
-        <v>4</v>
+      <c r="C283" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D283" s="4"/>
       <c r="F283" s="4"/>
@@ -5952,8 +6063,8 @@
       <c r="B284" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C284" s="4" t="s">
-        <v>4</v>
+      <c r="C284" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D284" s="4"/>
       <c r="F284" s="4"/>
@@ -5965,8 +6076,8 @@
       <c r="B285" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C285" s="4" t="s">
-        <v>4</v>
+      <c r="C285" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D285" s="4"/>
       <c r="F285" s="4"/>
@@ -5978,8 +6089,8 @@
       <c r="B286" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C286" s="4" t="s">
-        <v>4</v>
+      <c r="C286" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D286" s="4"/>
       <c r="F286" s="4"/>
@@ -5991,8 +6102,8 @@
       <c r="B287" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C287" s="4" t="s">
-        <v>4</v>
+      <c r="C287" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D287" s="4"/>
       <c r="F287" s="4"/>
@@ -6004,8 +6115,8 @@
       <c r="B288" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C288" s="4" t="s">
-        <v>4</v>
+      <c r="C288" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D288" s="4"/>
       <c r="F288" s="4"/>
@@ -6017,8 +6128,8 @@
       <c r="B289" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C289" s="4" t="s">
-        <v>4</v>
+      <c r="C289" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D289" s="4"/>
       <c r="F289" s="4"/>
@@ -6030,8 +6141,8 @@
       <c r="B290" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C290" s="4" t="s">
-        <v>4</v>
+      <c r="C290" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D290" s="4"/>
       <c r="F290" s="4"/>
@@ -6043,8 +6154,8 @@
       <c r="B291" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C291" s="4" t="s">
-        <v>4</v>
+      <c r="C291" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D291" s="4"/>
       <c r="F291" s="4"/>
@@ -6056,8 +6167,8 @@
       <c r="B292" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C292" s="4" t="s">
-        <v>4</v>
+      <c r="C292" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D292" s="4"/>
       <c r="F292" s="4"/>
@@ -6069,21 +6180,25 @@
       <c r="B293" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C293" s="4" t="s">
-        <v>4</v>
+      <c r="C293" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D293" s="4"/>
       <c r="F293" s="4"/>
     </row>
     <row r="294" spans="1:6" ht="21">
       <c r="B294" s="7"/>
-      <c r="C294" s="4"/>
+      <c r="C294" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D294" s="4"/>
       <c r="F294" s="4"/>
     </row>
     <row r="295" spans="1:6" ht="21">
       <c r="B295" s="7"/>
-      <c r="C295" s="4"/>
+      <c r="C295" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D295" s="4"/>
       <c r="F295" s="4"/>
     </row>
@@ -6094,8 +6209,8 @@
       <c r="B296" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C296" s="4" t="s">
-        <v>4</v>
+      <c r="C296" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D296" s="4"/>
       <c r="F296" s="4"/>
@@ -6107,8 +6222,8 @@
       <c r="B297" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C297" s="4" t="s">
-        <v>4</v>
+      <c r="C297" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D297" s="4"/>
       <c r="F297" s="4"/>
@@ -6120,8 +6235,8 @@
       <c r="B298" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C298" s="4" t="s">
-        <v>4</v>
+      <c r="C298" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D298" s="4"/>
       <c r="F298" s="4"/>
@@ -6133,8 +6248,8 @@
       <c r="B299" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C299" s="4" t="s">
-        <v>4</v>
+      <c r="C299" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D299" s="4"/>
       <c r="F299" s="4"/>
@@ -6146,8 +6261,8 @@
       <c r="B300" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C300" s="4" t="s">
-        <v>4</v>
+      <c r="C300" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D300" s="4"/>
       <c r="F300" s="4"/>
@@ -6159,8 +6274,8 @@
       <c r="B301" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C301" s="4" t="s">
-        <v>4</v>
+      <c r="C301" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D301" s="4"/>
       <c r="F301" s="4"/>
@@ -6172,8 +6287,8 @@
       <c r="B302" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C302" s="4" t="s">
-        <v>4</v>
+      <c r="C302" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D302" s="4"/>
       <c r="F302" s="4"/>
@@ -6185,8 +6300,8 @@
       <c r="B303" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C303" s="4" t="s">
-        <v>4</v>
+      <c r="C303" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D303" s="4"/>
       <c r="F303" s="4"/>
@@ -6198,8 +6313,8 @@
       <c r="B304" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C304" s="4" t="s">
-        <v>4</v>
+      <c r="C304" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D304" s="4"/>
       <c r="F304" s="4"/>
@@ -6211,8 +6326,8 @@
       <c r="B305" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C305" s="4" t="s">
-        <v>4</v>
+      <c r="C305" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D305" s="4"/>
       <c r="F305" s="4"/>
@@ -6224,8 +6339,8 @@
       <c r="B306" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C306" s="4" t="s">
-        <v>4</v>
+      <c r="C306" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D306" s="4"/>
       <c r="F306" s="4"/>
@@ -6237,8 +6352,8 @@
       <c r="B307" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C307" s="4" t="s">
-        <v>4</v>
+      <c r="C307" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D307" s="4"/>
       <c r="F307" s="4"/>
@@ -6250,8 +6365,8 @@
       <c r="B308" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C308" s="4" t="s">
-        <v>4</v>
+      <c r="C308" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D308" s="4"/>
       <c r="F308" s="4"/>
@@ -6263,8 +6378,8 @@
       <c r="B309" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C309" s="4" t="s">
-        <v>4</v>
+      <c r="C309" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D309" s="4"/>
       <c r="F309" s="4"/>
@@ -6276,8 +6391,8 @@
       <c r="B310" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C310" s="4" t="s">
-        <v>4</v>
+      <c r="C310" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D310" s="4"/>
       <c r="F310" s="4"/>
@@ -6289,8 +6404,8 @@
       <c r="B311" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C311" s="4" t="s">
-        <v>4</v>
+      <c r="C311" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D311" s="4"/>
       <c r="F311" s="4"/>
@@ -6302,8 +6417,8 @@
       <c r="B312" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C312" s="4" t="s">
-        <v>4</v>
+      <c r="C312" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D312" s="4"/>
       <c r="F312" s="4"/>
@@ -6315,8 +6430,8 @@
       <c r="B313" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C313" s="4" t="s">
-        <v>4</v>
+      <c r="C313" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D313" s="4"/>
       <c r="F313" s="4"/>
@@ -6328,8 +6443,8 @@
       <c r="B314" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C314" s="4" t="s">
-        <v>4</v>
+      <c r="C314" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D314" s="4"/>
       <c r="F314" s="4"/>
@@ -6341,8 +6456,8 @@
       <c r="B315" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C315" s="4" t="s">
-        <v>4</v>
+      <c r="C315" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D315" s="4"/>
       <c r="F315" s="4"/>
@@ -6354,8 +6469,8 @@
       <c r="B316" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C316" s="4" t="s">
-        <v>4</v>
+      <c r="C316" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D316" s="4"/>
       <c r="F316" s="4"/>
@@ -6367,8 +6482,8 @@
       <c r="B317" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C317" s="4" t="s">
-        <v>4</v>
+      <c r="C317" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D317" s="4"/>
       <c r="F317" s="4"/>
@@ -6380,8 +6495,8 @@
       <c r="B318" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C318" s="4" t="s">
-        <v>4</v>
+      <c r="C318" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D318" s="4"/>
       <c r="F318" s="4"/>
@@ -6393,8 +6508,8 @@
       <c r="B319" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C319" s="4" t="s">
-        <v>4</v>
+      <c r="C319" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D319" s="4"/>
       <c r="F319" s="4"/>
@@ -6406,8 +6521,8 @@
       <c r="B320" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C320" s="4" t="s">
-        <v>4</v>
+      <c r="C320" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D320" s="4"/>
       <c r="F320" s="4"/>
@@ -6419,8 +6534,8 @@
       <c r="B321" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C321" s="4" t="s">
-        <v>4</v>
+      <c r="C321" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D321" s="4"/>
       <c r="F321" s="4"/>
@@ -6432,8 +6547,8 @@
       <c r="B322" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C322" s="4" t="s">
-        <v>4</v>
+      <c r="C322" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D322" s="4"/>
       <c r="F322" s="4"/>
@@ -6445,8 +6560,8 @@
       <c r="B323" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C323" s="4" t="s">
-        <v>4</v>
+      <c r="C323" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D323" s="4"/>
       <c r="F323" s="4"/>
@@ -6458,8 +6573,8 @@
       <c r="B324" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C324" s="4" t="s">
-        <v>4</v>
+      <c r="C324" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D324" s="4"/>
       <c r="F324" s="4"/>
@@ -6471,8 +6586,8 @@
       <c r="B325" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C325" s="4" t="s">
-        <v>4</v>
+      <c r="C325" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D325" s="4"/>
       <c r="F325" s="4"/>
@@ -6484,8 +6599,8 @@
       <c r="B326" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C326" s="4" t="s">
-        <v>4</v>
+      <c r="C326" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D326" s="4"/>
       <c r="F326" s="4"/>
@@ -6497,8 +6612,8 @@
       <c r="B327" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C327" s="4" t="s">
-        <v>4</v>
+      <c r="C327" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D327" s="4"/>
       <c r="F327" s="4"/>
@@ -6510,8 +6625,8 @@
       <c r="B328" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C328" s="4" t="s">
-        <v>4</v>
+      <c r="C328" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D328" s="4"/>
     </row>
@@ -6522,8 +6637,8 @@
       <c r="B329" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C329" s="4" t="s">
-        <v>4</v>
+      <c r="C329" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D329" s="4"/>
     </row>
@@ -6534,8 +6649,8 @@
       <c r="B330" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C330" s="4" t="s">
-        <v>4</v>
+      <c r="C330" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D330" s="4"/>
     </row>
@@ -6546,8 +6661,8 @@
       <c r="B331" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C331" s="4" t="s">
-        <v>4</v>
+      <c r="C331" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D331" s="4"/>
     </row>
@@ -6558,8 +6673,8 @@
       <c r="B332" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C332" s="4" t="s">
-        <v>4</v>
+      <c r="C332" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D332" s="4"/>
     </row>
@@ -6570,19 +6685,23 @@
       <c r="B333" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C333" s="4" t="s">
-        <v>4</v>
+      <c r="C333" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D333" s="4"/>
     </row>
     <row r="334" spans="1:6" ht="21">
       <c r="B334" s="7"/>
-      <c r="C334" s="4"/>
+      <c r="C334" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D334" s="4"/>
     </row>
     <row r="335" spans="1:6" ht="21">
       <c r="B335" s="7"/>
-      <c r="C335" s="4"/>
+      <c r="C335" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="1:6" ht="21">
@@ -6592,8 +6711,8 @@
       <c r="B336" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C336" s="4" t="s">
-        <v>4</v>
+      <c r="C336" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D336" s="4"/>
     </row>
@@ -6604,8 +6723,8 @@
       <c r="B337" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C337" s="4" t="s">
-        <v>4</v>
+      <c r="C337" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D337" s="4"/>
     </row>
@@ -6616,8 +6735,8 @@
       <c r="B338" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C338" s="4" t="s">
-        <v>4</v>
+      <c r="C338" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D338" s="4"/>
     </row>
@@ -6628,8 +6747,8 @@
       <c r="B339" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C339" s="4" t="s">
-        <v>4</v>
+      <c r="C339" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D339" s="4"/>
     </row>
@@ -6640,8 +6759,8 @@
       <c r="B340" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C340" s="4" t="s">
-        <v>4</v>
+      <c r="C340" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D340" s="4"/>
     </row>
@@ -6652,8 +6771,8 @@
       <c r="B341" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C341" s="4" t="s">
-        <v>4</v>
+      <c r="C341" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D341" s="4"/>
     </row>
@@ -6664,8 +6783,8 @@
       <c r="B342" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C342" s="4" t="s">
-        <v>4</v>
+      <c r="C342" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D342" s="4"/>
     </row>
@@ -6676,8 +6795,8 @@
       <c r="B343" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C343" s="4" t="s">
-        <v>4</v>
+      <c r="C343" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D343" s="4"/>
     </row>
@@ -6688,8 +6807,8 @@
       <c r="B344" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C344" s="4" t="s">
-        <v>4</v>
+      <c r="C344" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D344" s="4"/>
     </row>
@@ -6700,8 +6819,8 @@
       <c r="B345" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C345" s="4" t="s">
-        <v>4</v>
+      <c r="C345" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D345" s="4"/>
     </row>
@@ -6712,8 +6831,8 @@
       <c r="B346" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C346" s="4" t="s">
-        <v>4</v>
+      <c r="C346" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D346" s="4"/>
     </row>
@@ -6724,8 +6843,8 @@
       <c r="B347" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C347" s="4" t="s">
-        <v>4</v>
+      <c r="C347" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D347" s="4"/>
     </row>
@@ -6736,8 +6855,8 @@
       <c r="B348" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C348" s="4" t="s">
-        <v>4</v>
+      <c r="C348" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D348" s="4"/>
     </row>
@@ -6748,8 +6867,8 @@
       <c r="B349" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C349" s="4" t="s">
-        <v>4</v>
+      <c r="C349" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D349" s="4"/>
     </row>
@@ -6760,8 +6879,8 @@
       <c r="B350" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C350" s="4" t="s">
-        <v>4</v>
+      <c r="C350" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D350" s="4"/>
     </row>
@@ -6772,8 +6891,8 @@
       <c r="B351" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C351" s="4" t="s">
-        <v>4</v>
+      <c r="C351" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D351" s="4"/>
     </row>
@@ -6784,8 +6903,8 @@
       <c r="B352" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C352" s="4" t="s">
-        <v>4</v>
+      <c r="C352" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D352" s="4"/>
     </row>
@@ -6796,19 +6915,23 @@
       <c r="B353" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C353" s="4" t="s">
-        <v>4</v>
+      <c r="C353" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D353" s="4"/>
     </row>
     <row r="354" spans="1:4" ht="21">
       <c r="B354" s="7"/>
-      <c r="C354" s="4"/>
+      <c r="C354" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="1:4" ht="21">
       <c r="B355" s="7"/>
-      <c r="C355" s="4"/>
+      <c r="C355" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21">
@@ -6818,8 +6941,8 @@
       <c r="B356" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C356" s="4" t="s">
-        <v>4</v>
+      <c r="C356" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D356" s="4"/>
     </row>
@@ -6830,8 +6953,8 @@
       <c r="B357" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C357" s="4" t="s">
-        <v>4</v>
+      <c r="C357" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D357" s="4"/>
     </row>
@@ -6842,8 +6965,8 @@
       <c r="B358" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C358" s="4" t="s">
-        <v>4</v>
+      <c r="C358" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D358" s="4"/>
     </row>
@@ -6854,8 +6977,8 @@
       <c r="B359" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C359" s="4" t="s">
-        <v>4</v>
+      <c r="C359" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D359" s="4"/>
     </row>
@@ -6866,8 +6989,8 @@
       <c r="B360" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C360" s="4" t="s">
-        <v>4</v>
+      <c r="C360" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D360" s="4"/>
     </row>
@@ -6878,8 +7001,8 @@
       <c r="B361" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C361" s="4" t="s">
-        <v>4</v>
+      <c r="C361" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D361" s="4"/>
     </row>
@@ -6890,8 +7013,8 @@
       <c r="B362" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C362" s="4" t="s">
-        <v>4</v>
+      <c r="C362" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D362" s="4"/>
     </row>
@@ -6902,8 +7025,8 @@
       <c r="B363" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C363" s="4" t="s">
-        <v>4</v>
+      <c r="C363" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D363" s="4"/>
     </row>
@@ -6914,8 +7037,8 @@
       <c r="B364" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C364" s="4" t="s">
-        <v>4</v>
+      <c r="C364" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D364" s="4"/>
     </row>
@@ -6926,8 +7049,8 @@
       <c r="B365" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C365" s="4" t="s">
-        <v>4</v>
+      <c r="C365" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D365" s="4"/>
     </row>
@@ -6938,8 +7061,8 @@
       <c r="B366" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C366" s="4" t="s">
-        <v>4</v>
+      <c r="C366" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D366" s="4"/>
     </row>
@@ -6950,8 +7073,8 @@
       <c r="B367" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C367" s="4" t="s">
-        <v>4</v>
+      <c r="C367" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D367" s="4"/>
     </row>
@@ -6962,8 +7085,8 @@
       <c r="B368" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C368" s="4" t="s">
-        <v>4</v>
+      <c r="C368" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D368" s="4"/>
     </row>
@@ -6974,8 +7097,8 @@
       <c r="B369" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C369" s="4" t="s">
-        <v>4</v>
+      <c r="C369" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D369" s="4"/>
     </row>
@@ -6986,8 +7109,8 @@
       <c r="B370" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C370" s="4" t="s">
-        <v>4</v>
+      <c r="C370" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D370" s="4"/>
     </row>
@@ -6998,8 +7121,8 @@
       <c r="B371" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C371" s="4" t="s">
-        <v>4</v>
+      <c r="C371" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D371" s="4"/>
     </row>
@@ -7010,8 +7133,8 @@
       <c r="B372" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C372" s="4" t="s">
-        <v>4</v>
+      <c r="C372" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D372" s="4"/>
     </row>
@@ -7022,8 +7145,8 @@
       <c r="B373" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C373" s="4" t="s">
-        <v>4</v>
+      <c r="C373" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D373" s="4"/>
     </row>
@@ -7034,8 +7157,8 @@
       <c r="B374" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C374" s="4" t="s">
-        <v>4</v>
+      <c r="C374" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D374" s="4"/>
     </row>
@@ -7046,8 +7169,8 @@
       <c r="B375" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C375" s="4" t="s">
-        <v>4</v>
+      <c r="C375" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D375" s="4"/>
     </row>
@@ -7058,8 +7181,8 @@
       <c r="B376" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C376" s="4" t="s">
-        <v>4</v>
+      <c r="C376" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D376" s="4"/>
     </row>
@@ -7070,8 +7193,8 @@
       <c r="B377" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C377" s="4" t="s">
-        <v>4</v>
+      <c r="C377" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D377" s="4"/>
     </row>
@@ -7082,8 +7205,8 @@
       <c r="B378" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C378" s="4" t="s">
-        <v>4</v>
+      <c r="C378" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D378" s="4"/>
     </row>
@@ -7094,8 +7217,8 @@
       <c r="B379" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C379" s="4" t="s">
-        <v>4</v>
+      <c r="C379" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D379" s="4"/>
     </row>
@@ -7106,8 +7229,8 @@
       <c r="B380" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C380" s="4" t="s">
-        <v>4</v>
+      <c r="C380" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D380" s="4"/>
     </row>
@@ -7118,8 +7241,8 @@
       <c r="B381" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C381" s="4" t="s">
-        <v>4</v>
+      <c r="C381" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D381" s="4"/>
     </row>
@@ -7130,8 +7253,8 @@
       <c r="B382" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C382" s="4" t="s">
-        <v>4</v>
+      <c r="C382" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D382" s="4"/>
     </row>
@@ -7142,8 +7265,8 @@
       <c r="B383" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C383" s="4" t="s">
-        <v>4</v>
+      <c r="C383" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D383" s="4"/>
     </row>
@@ -7154,8 +7277,8 @@
       <c r="B384" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C384" s="4" t="s">
-        <v>4</v>
+      <c r="C384" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D384" s="4"/>
     </row>
@@ -7166,8 +7289,8 @@
       <c r="B385" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C385" s="4" t="s">
-        <v>4</v>
+      <c r="C385" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D385" s="4"/>
     </row>
@@ -7178,8 +7301,8 @@
       <c r="B386" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C386" s="4" t="s">
-        <v>4</v>
+      <c r="C386" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D386" s="4"/>
     </row>
@@ -7190,8 +7313,8 @@
       <c r="B387" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C387" s="4" t="s">
-        <v>4</v>
+      <c r="C387" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D387" s="4"/>
     </row>
@@ -7202,8 +7325,8 @@
       <c r="B388" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C388" s="4" t="s">
-        <v>4</v>
+      <c r="C388" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D388" s="4"/>
     </row>
@@ -7214,8 +7337,8 @@
       <c r="B389" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C389" s="4" t="s">
-        <v>4</v>
+      <c r="C389" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D389" s="4"/>
     </row>
@@ -7226,8 +7349,8 @@
       <c r="B390" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C390" s="4" t="s">
-        <v>4</v>
+      <c r="C390" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D390" s="4"/>
     </row>
@@ -7238,8 +7361,8 @@
       <c r="B391" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C391" s="4" t="s">
-        <v>4</v>
+      <c r="C391" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D391" s="4"/>
     </row>
@@ -7250,8 +7373,8 @@
       <c r="B392" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C392" s="4" t="s">
-        <v>4</v>
+      <c r="C392" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D392" s="4"/>
     </row>
@@ -7262,8 +7385,8 @@
       <c r="B393" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C393" s="4" t="s">
-        <v>4</v>
+      <c r="C393" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D393" s="4"/>
     </row>
@@ -7274,8 +7397,8 @@
       <c r="B394" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C394" s="4" t="s">
-        <v>4</v>
+      <c r="C394" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D394" s="4"/>
     </row>
@@ -7286,8 +7409,8 @@
       <c r="B395" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C395" s="4" t="s">
-        <v>4</v>
+      <c r="C395" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D395" s="4"/>
     </row>
@@ -7298,8 +7421,8 @@
       <c r="B396" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C396" s="4" t="s">
-        <v>4</v>
+      <c r="C396" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D396" s="4"/>
     </row>
@@ -7310,8 +7433,8 @@
       <c r="B397" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C397" s="4" t="s">
-        <v>4</v>
+      <c r="C397" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D397" s="4"/>
     </row>
@@ -7322,8 +7445,8 @@
       <c r="B398" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C398" s="4" t="s">
-        <v>4</v>
+      <c r="C398" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D398" s="4"/>
     </row>
@@ -7334,19 +7457,23 @@
       <c r="B399" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C399" s="4" t="s">
-        <v>4</v>
+      <c r="C399" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D399" s="4"/>
     </row>
     <row r="400" spans="1:4" ht="21">
       <c r="B400" s="7"/>
-      <c r="C400" s="4"/>
+      <c r="C400" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D400" s="4"/>
     </row>
     <row r="401" spans="1:4" ht="21">
       <c r="B401" s="7"/>
-      <c r="C401" s="4"/>
+      <c r="C401" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D401" s="4"/>
     </row>
     <row r="402" spans="1:4" ht="21">
@@ -7356,8 +7483,8 @@
       <c r="B402" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C402" s="4" t="s">
-        <v>4</v>
+      <c r="C402" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D402" s="4"/>
     </row>
@@ -7368,8 +7495,8 @@
       <c r="B403" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C403" s="4" t="s">
-        <v>4</v>
+      <c r="C403" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D403" s="4"/>
     </row>
@@ -7380,8 +7507,8 @@
       <c r="B404" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C404" s="4" t="s">
-        <v>4</v>
+      <c r="C404" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D404" s="4"/>
     </row>
@@ -7392,8 +7519,8 @@
       <c r="B405" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C405" s="4" t="s">
-        <v>4</v>
+      <c r="C405" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D405" s="4"/>
     </row>
@@ -7404,8 +7531,8 @@
       <c r="B406" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C406" s="4" t="s">
-        <v>4</v>
+      <c r="C406" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D406" s="4"/>
     </row>
@@ -7416,19 +7543,23 @@
       <c r="B407" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C407" s="4" t="s">
-        <v>4</v>
+      <c r="C407" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D407" s="4"/>
     </row>
     <row r="408" spans="1:4" ht="21">
       <c r="B408" s="7"/>
-      <c r="C408" s="4"/>
+      <c r="C408" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D408" s="4"/>
     </row>
     <row r="409" spans="1:4" ht="21">
       <c r="B409" s="7"/>
-      <c r="C409" s="4"/>
+      <c r="C409" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D409" s="4"/>
     </row>
     <row r="410" spans="1:4" ht="21">
@@ -7438,8 +7569,8 @@
       <c r="B410" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C410" s="4" t="s">
-        <v>4</v>
+      <c r="C410" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D410" s="4"/>
     </row>
@@ -7450,8 +7581,8 @@
       <c r="B411" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C411" s="4" t="s">
-        <v>4</v>
+      <c r="C411" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D411" s="4"/>
     </row>
@@ -7462,8 +7593,8 @@
       <c r="B412" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C412" s="4" t="s">
-        <v>4</v>
+      <c r="C412" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D412" s="4"/>
     </row>
@@ -7474,8 +7605,8 @@
       <c r="B413" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C413" s="4" t="s">
-        <v>4</v>
+      <c r="C413" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D413" s="4"/>
     </row>
@@ -7486,8 +7617,8 @@
       <c r="B414" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C414" s="4" t="s">
-        <v>4</v>
+      <c r="C414" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D414" s="4"/>
     </row>
@@ -7498,8 +7629,8 @@
       <c r="B415" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C415" s="4" t="s">
-        <v>4</v>
+      <c r="C415" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D415" s="4"/>
     </row>
@@ -7510,8 +7641,8 @@
       <c r="B416" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C416" s="4" t="s">
-        <v>4</v>
+      <c r="C416" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D416" s="4"/>
     </row>
@@ -7522,8 +7653,8 @@
       <c r="B417" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C417" s="4" t="s">
-        <v>4</v>
+      <c r="C417" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D417" s="4"/>
     </row>
@@ -7534,8 +7665,8 @@
       <c r="B418" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C418" s="4" t="s">
-        <v>4</v>
+      <c r="C418" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D418" s="4"/>
     </row>
@@ -7546,8 +7677,8 @@
       <c r="B419" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C419" s="4" t="s">
-        <v>4</v>
+      <c r="C419" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D419" s="4"/>
     </row>
@@ -7558,8 +7689,8 @@
       <c r="B420" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C420" s="4" t="s">
-        <v>4</v>
+      <c r="C420" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D420" s="4"/>
     </row>
@@ -7570,8 +7701,8 @@
       <c r="B421" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C421" s="4" t="s">
-        <v>4</v>
+      <c r="C421" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D421" s="4"/>
     </row>
@@ -7582,8 +7713,8 @@
       <c r="B422" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C422" s="4" t="s">
-        <v>4</v>
+      <c r="C422" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D422" s="4"/>
     </row>
@@ -7594,8 +7725,8 @@
       <c r="B423" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C423" s="4" t="s">
-        <v>4</v>
+      <c r="C423" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D423" s="4"/>
     </row>
@@ -7606,8 +7737,8 @@
       <c r="B424" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C424" s="4" t="s">
-        <v>4</v>
+      <c r="C424" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D424" s="4"/>
     </row>
@@ -7618,8 +7749,8 @@
       <c r="B425" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C425" s="4" t="s">
-        <v>4</v>
+      <c r="C425" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D425" s="4"/>
     </row>
@@ -7630,8 +7761,8 @@
       <c r="B426" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C426" s="4" t="s">
-        <v>4</v>
+      <c r="C426" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D426" s="4"/>
     </row>
@@ -7642,8 +7773,8 @@
       <c r="B427" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C427" s="4" t="s">
-        <v>4</v>
+      <c r="C427" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D427" s="4"/>
     </row>
@@ -7654,8 +7785,8 @@
       <c r="B428" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C428" s="4" t="s">
-        <v>4</v>
+      <c r="C428" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D428" s="4"/>
     </row>
@@ -7666,8 +7797,8 @@
       <c r="B429" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C429" s="4" t="s">
-        <v>4</v>
+      <c r="C429" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D429" s="4"/>
     </row>
@@ -7678,8 +7809,8 @@
       <c r="B430" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C430" s="4" t="s">
-        <v>4</v>
+      <c r="C430" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D430" s="4"/>
     </row>
@@ -7690,8 +7821,8 @@
       <c r="B431" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C431" s="4" t="s">
-        <v>4</v>
+      <c r="C431" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D431" s="4"/>
     </row>
@@ -7702,8 +7833,8 @@
       <c r="B432" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C432" s="4" t="s">
-        <v>4</v>
+      <c r="C432" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D432" s="4"/>
     </row>
@@ -7714,8 +7845,8 @@
       <c r="B433" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C433" s="4" t="s">
-        <v>4</v>
+      <c r="C433" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D433" s="4"/>
     </row>
@@ -7726,8 +7857,8 @@
       <c r="B434" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C434" s="4" t="s">
-        <v>4</v>
+      <c r="C434" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D434" s="4"/>
     </row>
@@ -7738,8 +7869,8 @@
       <c r="B435" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C435" s="4" t="s">
-        <v>4</v>
+      <c r="C435" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D435" s="4"/>
     </row>
@@ -7750,8 +7881,8 @@
       <c r="B436" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C436" s="4" t="s">
-        <v>4</v>
+      <c r="C436" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D436" s="4"/>
     </row>
@@ -7762,8 +7893,8 @@
       <c r="B437" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C437" s="4" t="s">
-        <v>4</v>
+      <c r="C437" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D437" s="4"/>
     </row>
@@ -7774,8 +7905,8 @@
       <c r="B438" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C438" s="4" t="s">
-        <v>4</v>
+      <c r="C438" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D438" s="4"/>
     </row>
@@ -7786,8 +7917,8 @@
       <c r="B439" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C439" s="4" t="s">
-        <v>4</v>
+      <c r="C439" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D439" s="4"/>
     </row>
@@ -7798,8 +7929,8 @@
       <c r="B440" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C440" s="4" t="s">
-        <v>4</v>
+      <c r="C440" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D440" s="4"/>
     </row>
@@ -7810,8 +7941,8 @@
       <c r="B441" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C441" s="4" t="s">
-        <v>4</v>
+      <c r="C441" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D441" s="4"/>
     </row>
@@ -7822,8 +7953,8 @@
       <c r="B442" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C442" s="4" t="s">
-        <v>4</v>
+      <c r="C442" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D442" s="4"/>
     </row>
@@ -7834,8 +7965,8 @@
       <c r="B443" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C443" s="4" t="s">
-        <v>4</v>
+      <c r="C443" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D443" s="4"/>
     </row>
@@ -7846,8 +7977,8 @@
       <c r="B444" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C444" s="4" t="s">
-        <v>4</v>
+      <c r="C444" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D444" s="4"/>
     </row>
@@ -7858,8 +7989,8 @@
       <c r="B445" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C445" s="4" t="s">
-        <v>4</v>
+      <c r="C445" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D445" s="4"/>
     </row>
@@ -7870,8 +8001,8 @@
       <c r="B446" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C446" s="4" t="s">
-        <v>4</v>
+      <c r="C446" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D446" s="4"/>
     </row>
@@ -7882,8 +8013,8 @@
       <c r="B447" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C447" s="4" t="s">
-        <v>4</v>
+      <c r="C447" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D447" s="4"/>
     </row>
@@ -7894,8 +8025,8 @@
       <c r="B448" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C448" s="4" t="s">
-        <v>4</v>
+      <c r="C448" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="21">
@@ -7905,8 +8036,8 @@
       <c r="B449" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C449" s="4" t="s">
-        <v>4</v>
+      <c r="C449" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="21">
@@ -7916,8 +8047,8 @@
       <c r="B450" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C450" s="4" t="s">
-        <v>4</v>
+      <c r="C450" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="21">
@@ -7927,8 +8058,8 @@
       <c r="B451" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C451" s="4" t="s">
-        <v>4</v>
+      <c r="C451" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="21">
@@ -7938,8 +8069,8 @@
       <c r="B452" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C452" s="4" t="s">
-        <v>4</v>
+      <c r="C452" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="21">
@@ -7949,8 +8080,8 @@
       <c r="B453" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C453" s="4" t="s">
-        <v>4</v>
+      <c r="C453" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="21">
@@ -7960,8 +8091,8 @@
       <c r="B454" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C454" s="4" t="s">
-        <v>4</v>
+      <c r="C454" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="21">
@@ -7971,8 +8102,8 @@
       <c r="B455" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C455" s="4" t="s">
-        <v>4</v>
+      <c r="C455" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="21">
@@ -7982,8 +8113,8 @@
       <c r="B456" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C456" s="4" t="s">
-        <v>4</v>
+      <c r="C456" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="21">
@@ -7993,8 +8124,8 @@
       <c r="B457" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C457" s="4" t="s">
-        <v>4</v>
+      <c r="C457" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="21">
@@ -8004,8 +8135,8 @@
       <c r="B458" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C458" s="4" t="s">
-        <v>4</v>
+      <c r="C458" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="21">
@@ -8015,8 +8146,8 @@
       <c r="B459" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C459" s="4" t="s">
-        <v>4</v>
+      <c r="C459" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="21">
@@ -8026,8 +8157,8 @@
       <c r="B460" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C460" s="4" t="s">
-        <v>4</v>
+      <c r="C460" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="21">
@@ -8037,8 +8168,8 @@
       <c r="B461" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C461" s="4" t="s">
-        <v>4</v>
+      <c r="C461" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="21">
@@ -8048,8 +8179,8 @@
       <c r="B462" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C462" s="4" t="s">
-        <v>4</v>
+      <c r="C462" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="21">
@@ -8059,8 +8190,8 @@
       <c r="B463" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C463" s="4" t="s">
-        <v>4</v>
+      <c r="C463" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="21">
@@ -8070,8 +8201,8 @@
       <c r="B464" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C464" s="4" t="s">
-        <v>4</v>
+      <c r="C464" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="21">
@@ -8081,8 +8212,8 @@
       <c r="B465" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C465" s="4" t="s">
-        <v>4</v>
+      <c r="C465" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="21">
@@ -8092,8 +8223,8 @@
       <c r="B466" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C466" s="4" t="s">
-        <v>4</v>
+      <c r="C466" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="21">
@@ -8103,8 +8234,8 @@
       <c r="B467" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C467" s="4" t="s">
-        <v>4</v>
+      <c r="C467" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="21">
@@ -8114,8 +8245,8 @@
       <c r="B468" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C468" s="4" t="s">
-        <v>4</v>
+      <c r="C468" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="21">
@@ -8125,18 +8256,22 @@
       <c r="B469" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C469" s="4" t="s">
-        <v>4</v>
+      <c r="C469" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="B470" s="7"/>
-      <c r="C470" s="4"/>
+      <c r="C470" s="20" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="8"/>
       <c r="B471" s="7"/>
-      <c r="C471" s="4"/>
+      <c r="C471" s="20" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
